--- a/src/db/sedes.xlsx
+++ b/src/db/sedes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\seguimiento-proyectos-huila\src\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF9F15E-A791-40FA-B509-00F06AA45674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF391839-65D9-40FF-8FCF-AD7F0B496AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3858,6 +3858,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6CB2EB5-BCFB-4D2B-8C28-FE2C221F79A1}" name="tblmunInsSed" displayName="tblmunInsSed" ref="A1:C1445" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C1445" xr:uid="{F6CB2EB5-BCFB-4D2B-8C28-FE2C221F79A1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C1445">
+    <sortCondition ref="A1:A1445"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5648A2C9-E6D6-463E-A525-3B42AA99EB7E}" name="MUNICIPIO" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{71EDBA56-5640-41EF-9E2D-B92EA60D166D}" name="INSTITUCION" dataDxfId="1"/>
@@ -4167,8 +4170,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:C1445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
